--- a/Code/Results/Cases/Case_0_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9627160199728335</v>
+        <v>1.031528711567798</v>
       </c>
       <c r="D2">
-        <v>0.9757553883943392</v>
+        <v>1.040777922395563</v>
       </c>
       <c r="E2">
-        <v>0.9735607856627235</v>
+        <v>1.031004210401216</v>
       </c>
       <c r="F2">
-        <v>0.9767333462384834</v>
+        <v>1.047580054212719</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9860720965965801</v>
+        <v>1.036663938705475</v>
       </c>
       <c r="K2">
-        <v>0.9875631516914961</v>
+        <v>1.043559307405299</v>
       </c>
       <c r="L2">
-        <v>0.9854011775273782</v>
+        <v>1.033813583220028</v>
       </c>
       <c r="M2">
-        <v>0.9885266296178029</v>
+        <v>1.050342295136893</v>
       </c>
       <c r="N2">
-        <v>0.9874724320777979</v>
+        <v>1.038136120405452</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9709328228240008</v>
+        <v>1.033149473229332</v>
       </c>
       <c r="D3">
-        <v>0.9835230996237683</v>
+        <v>1.042373664865803</v>
       </c>
       <c r="E3">
-        <v>0.9804131265094914</v>
+        <v>1.032405029692096</v>
       </c>
       <c r="F3">
-        <v>0.9851892302709242</v>
+        <v>1.049331019988978</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9922485226702404</v>
+        <v>1.037923198507259</v>
       </c>
       <c r="K3">
-        <v>0.9943712389078055</v>
+        <v>1.04496347961889</v>
       </c>
       <c r="L3">
-        <v>0.9913029152141065</v>
+        <v>1.03502128702245</v>
       </c>
       <c r="M3">
-        <v>0.9960151921539085</v>
+        <v>1.051902701189665</v>
       </c>
       <c r="N3">
-        <v>0.9936576293849286</v>
+        <v>1.039397168500594</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9760766648921216</v>
+        <v>1.034196746797846</v>
       </c>
       <c r="D4">
-        <v>0.9883930003279576</v>
+        <v>1.04340511938952</v>
       </c>
       <c r="E4">
-        <v>0.9847101236506233</v>
+        <v>1.033310310487998</v>
       </c>
       <c r="F4">
-        <v>0.9904916278752754</v>
+        <v>1.05046310950982</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.996112781459717</v>
+        <v>1.038736259236987</v>
       </c>
       <c r="K4">
-        <v>0.9986335600929621</v>
+        <v>1.045870500420915</v>
       </c>
       <c r="L4">
-        <v>0.9949966554315443</v>
+        <v>1.035801096219005</v>
       </c>
       <c r="M4">
-        <v>1.000706181598689</v>
+        <v>1.052911040437299</v>
       </c>
       <c r="N4">
-        <v>0.9975273758651231</v>
+        <v>1.040211383869818</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9782003950615636</v>
+        <v>1.034636679974208</v>
       </c>
       <c r="D5">
-        <v>0.9904052672022458</v>
+        <v>1.043838489932027</v>
       </c>
       <c r="E5">
-        <v>0.9864858385451855</v>
+        <v>1.033690625064756</v>
       </c>
       <c r="F5">
-        <v>0.9926828950784745</v>
+        <v>1.050938834856217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9977075823121879</v>
+        <v>1.039077655643758</v>
       </c>
       <c r="K5">
-        <v>1.000393342051787</v>
+        <v>1.046251444461984</v>
       </c>
       <c r="L5">
-        <v>0.9965213786264996</v>
+        <v>1.036128539092528</v>
       </c>
       <c r="M5">
-        <v>1.002643600927006</v>
+        <v>1.053334633519881</v>
       </c>
       <c r="N5">
-        <v>0.9991244415177304</v>
+        <v>1.040553265098645</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9785547797689845</v>
+        <v>1.034710527025687</v>
       </c>
       <c r="D6">
-        <v>0.9907411460885172</v>
+        <v>1.04391124020476</v>
       </c>
       <c r="E6">
-        <v>0.9867822417956799</v>
+        <v>1.033754466224417</v>
       </c>
       <c r="F6">
-        <v>0.9930486700522477</v>
+        <v>1.051018699525774</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9979736657740146</v>
+        <v>1.039134953541414</v>
       </c>
       <c r="K6">
-        <v>1.00068699307582</v>
+        <v>1.0463153853514</v>
       </c>
       <c r="L6">
-        <v>0.9967757867681881</v>
+        <v>1.03618349560334</v>
       </c>
       <c r="M6">
-        <v>1.002966932869576</v>
+        <v>1.053405738610759</v>
       </c>
       <c r="N6">
-        <v>0.9993909028485931</v>
+        <v>1.040610644365888</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9761051911661528</v>
+        <v>1.034202626530107</v>
       </c>
       <c r="D7">
-        <v>0.9884200230324018</v>
+        <v>1.04341091108818</v>
       </c>
       <c r="E7">
-        <v>0.9847339690870885</v>
+        <v>1.033315393301748</v>
       </c>
       <c r="F7">
-        <v>0.9905210531749772</v>
+        <v>1.050469466965876</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9961342056722305</v>
+        <v>1.038740822609221</v>
       </c>
       <c r="K7">
-        <v>0.9986571978452218</v>
+        <v>1.045875592045446</v>
       </c>
       <c r="L7">
-        <v>0.9950171370938838</v>
+        <v>1.03580547304441</v>
       </c>
       <c r="M7">
-        <v>1.000732202801205</v>
+        <v>1.052916701723882</v>
       </c>
       <c r="N7">
-        <v>0.9975488305024756</v>
+        <v>1.040215953722564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.96553043642283</v>
+        <v>1.032076765904279</v>
       </c>
       <c r="D8">
-        <v>0.978414403083384</v>
+        <v>1.041317444217921</v>
       </c>
       <c r="E8">
-        <v>0.9759062080065509</v>
+        <v>1.03147786541934</v>
       </c>
       <c r="F8">
-        <v>0.9796277357553561</v>
+        <v>1.048171994757701</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9881880716675118</v>
+        <v>1.037089881716239</v>
       </c>
       <c r="K8">
-        <v>0.9898949274385954</v>
+        <v>1.044034184986658</v>
       </c>
       <c r="L8">
-        <v>0.9874227479175278</v>
+        <v>1.03422207978242</v>
       </c>
       <c r="M8">
-        <v>0.9910909214371533</v>
+        <v>1.05086992673562</v>
       </c>
       <c r="N8">
-        <v>0.9895914120760356</v>
+        <v>1.038562668304149</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9454357854714972</v>
+        <v>1.028319006331302</v>
       </c>
       <c r="D9">
-        <v>0.9594648480208547</v>
+        <v>1.037619640883565</v>
       </c>
       <c r="E9">
-        <v>0.9591985942730169</v>
+        <v>1.028230786132571</v>
       </c>
       <c r="F9">
-        <v>0.9590035463047395</v>
+        <v>1.044116151614282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9730742490544965</v>
+        <v>1.034166833571059</v>
       </c>
       <c r="K9">
-        <v>0.9732516984640261</v>
+        <v>1.04077694422093</v>
       </c>
       <c r="L9">
-        <v>0.9729902537672706</v>
+        <v>1.031418918133993</v>
       </c>
       <c r="M9">
-        <v>0.9727987309411731</v>
+        <v>1.0472524788012</v>
       </c>
       <c r="N9">
-        <v>0.9744561261013304</v>
+        <v>1.035635469095323</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9308374969978352</v>
+        <v>1.025805277719833</v>
       </c>
       <c r="D10">
-        <v>0.9457497535656185</v>
+        <v>1.035147871614436</v>
       </c>
       <c r="E10">
-        <v>0.9471190341328222</v>
+        <v>1.026059419911653</v>
       </c>
       <c r="F10">
-        <v>0.9440775938639226</v>
+        <v>1.041406588782684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9620918683333816</v>
+        <v>1.032208291231636</v>
       </c>
       <c r="K10">
-        <v>0.9611728290757331</v>
+        <v>1.038596517508378</v>
       </c>
       <c r="L10">
-        <v>0.9625135481731201</v>
+        <v>1.029540915074887</v>
       </c>
       <c r="M10">
-        <v>0.9595356971506817</v>
+        <v>1.044832980821994</v>
       </c>
       <c r="N10">
-        <v>0.9634581491398946</v>
+        <v>1.03367414540113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9241711328819369</v>
+        <v>1.024714625673881</v>
       </c>
       <c r="D11">
-        <v>0.9395009964890002</v>
+        <v>1.034075872470286</v>
       </c>
       <c r="E11">
-        <v>0.9416199076254227</v>
+        <v>1.025117502779489</v>
       </c>
       <c r="F11">
-        <v>0.9372765436596295</v>
+        <v>1.04023182003385</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.957078037860133</v>
+        <v>1.031357771619474</v>
       </c>
       <c r="K11">
-        <v>0.9556617327084957</v>
+        <v>1.037650123774023</v>
       </c>
       <c r="L11">
-        <v>0.9577336751429583</v>
+        <v>1.028725424021697</v>
       </c>
       <c r="M11">
-        <v>0.953486892488205</v>
+        <v>1.043783306098854</v>
       </c>
       <c r="N11">
-        <v>0.9584371984522798</v>
+        <v>1.032822417953563</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9216369238310559</v>
+        <v>1.024309166753347</v>
       </c>
       <c r="D12">
-        <v>0.9371278965501667</v>
+        <v>1.033677415882243</v>
       </c>
       <c r="E12">
-        <v>0.9395323058004673</v>
+        <v>1.02476736724914</v>
       </c>
       <c r="F12">
-        <v>0.9346935161562837</v>
+        <v>1.039795218422662</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9551724268685355</v>
+        <v>1.031041471582675</v>
       </c>
       <c r="K12">
-        <v>0.9535676034263376</v>
+        <v>1.037298241350387</v>
       </c>
       <c r="L12">
-        <v>0.9559175080223227</v>
+        <v>1.028422159079493</v>
       </c>
       <c r="M12">
-        <v>0.9511887887158512</v>
+        <v>1.043393095180532</v>
       </c>
       <c r="N12">
-        <v>0.9565288812744978</v>
+        <v>1.032505668734432</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9221832563120815</v>
+        <v>1.024396154763193</v>
       </c>
       <c r="D13">
-        <v>0.9376393866941198</v>
+        <v>1.033762898510581</v>
       </c>
       <c r="E13">
-        <v>0.9399822216470799</v>
+        <v>1.02484248468764</v>
       </c>
       <c r="F13">
-        <v>0.9352502632205977</v>
+        <v>1.039888882034356</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9555832233196646</v>
+        <v>1.031109336333286</v>
       </c>
       <c r="K13">
-        <v>0.9540190179486538</v>
+        <v>1.037373737323711</v>
       </c>
       <c r="L13">
-        <v>0.95630899825369</v>
+        <v>1.028487226663756</v>
       </c>
       <c r="M13">
-        <v>0.9516841574815889</v>
+        <v>1.043476811196233</v>
       </c>
       <c r="N13">
-        <v>0.9569402611037062</v>
+        <v>1.032573629860773</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9239628773878771</v>
+        <v>1.024681117369311</v>
       </c>
       <c r="D14">
-        <v>0.9393059315548921</v>
+        <v>1.034042941468731</v>
       </c>
       <c r="E14">
-        <v>0.9414482928970448</v>
+        <v>1.025088565942883</v>
       </c>
       <c r="F14">
-        <v>0.9370642272851296</v>
+        <v>1.040195735385686</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9569214300231935</v>
+        <v>1.031331633952679</v>
       </c>
       <c r="K14">
-        <v>0.9554896224188543</v>
+        <v>1.037621044259477</v>
       </c>
       <c r="L14">
-        <v>0.9575844070650442</v>
+        <v>1.028700363347615</v>
       </c>
       <c r="M14">
-        <v>0.9532980113863525</v>
+        <v>1.043751057638611</v>
       </c>
       <c r="N14">
-        <v>0.9582803682142489</v>
+        <v>1.032796243168284</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9250514699743427</v>
+        <v>1.024856646501032</v>
       </c>
       <c r="D15">
-        <v>0.9403256713865064</v>
+        <v>1.034215449256044</v>
       </c>
       <c r="E15">
-        <v>0.9423454759645284</v>
+        <v>1.025240149235509</v>
       </c>
       <c r="F15">
-        <v>0.9381741443991108</v>
+        <v>1.040384765635167</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.957740067127172</v>
+        <v>1.031468548309035</v>
       </c>
       <c r="K15">
-        <v>0.9563893148526761</v>
+        <v>1.037773371563875</v>
       </c>
       <c r="L15">
-        <v>0.9583646986021248</v>
+        <v>1.028831636541384</v>
       </c>
       <c r="M15">
-        <v>0.9542853856515187</v>
+        <v>1.043919987820463</v>
       </c>
       <c r="N15">
-        <v>0.9591001678768136</v>
+        <v>1.03293335195873</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.931272145452786</v>
+        <v>1.025877613434062</v>
       </c>
       <c r="D16">
-        <v>0.9461574853881509</v>
+        <v>1.035218979689826</v>
       </c>
       <c r="E16">
-        <v>0.9474779558048818</v>
+        <v>1.02612189515696</v>
       </c>
       <c r="F16">
-        <v>0.9445213429583497</v>
+        <v>1.041484521364972</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9624188137880808</v>
+        <v>1.03226468478837</v>
       </c>
       <c r="K16">
-        <v>0.9615322673532296</v>
+        <v>1.038659278111699</v>
       </c>
       <c r="L16">
-        <v>0.9628253061209572</v>
+        <v>1.029594987217837</v>
       </c>
       <c r="M16">
-        <v>0.9599302550541011</v>
+        <v>1.044902600769329</v>
       </c>
       <c r="N16">
-        <v>0.963785558894641</v>
+        <v>1.033730619043184</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9350777472601933</v>
+        <v>1.02651744327494</v>
       </c>
       <c r="D17">
-        <v>0.9497290427896975</v>
+        <v>1.035848002466259</v>
       </c>
       <c r="E17">
-        <v>0.9506224731985514</v>
+        <v>1.026674528593647</v>
       </c>
       <c r="F17">
-        <v>0.9484083181936913</v>
+        <v>1.04217395540717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9652815804915623</v>
+        <v>1.03276341515529</v>
       </c>
       <c r="K17">
-        <v>0.9646799148525698</v>
+        <v>1.039214372583785</v>
       </c>
       <c r="L17">
-        <v>0.9655554436268662</v>
+        <v>1.030073193787925</v>
       </c>
       <c r="M17">
-        <v>0.9633857348996605</v>
+        <v>1.045518419634303</v>
       </c>
       <c r="N17">
-        <v>0.9666523910552052</v>
+        <v>1.034230057664429</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9372646484036042</v>
+        <v>1.026890434684554</v>
       </c>
       <c r="D18">
-        <v>0.9517827701048334</v>
+        <v>1.036214736947007</v>
       </c>
       <c r="E18">
-        <v>0.952431050274764</v>
+        <v>1.026996706862235</v>
       </c>
       <c r="F18">
-        <v>0.9506433671910934</v>
+        <v>1.042575945815628</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9669267877276841</v>
+        <v>1.033054079667692</v>
       </c>
       <c r="K18">
-        <v>0.9664891521563918</v>
+        <v>1.039537933006811</v>
       </c>
       <c r="L18">
-        <v>0.9671247155606764</v>
+        <v>1.030351901977319</v>
       </c>
       <c r="M18">
-        <v>0.9653721551390303</v>
+        <v>1.045877422653877</v>
       </c>
       <c r="N18">
-        <v>0.9682999346743102</v>
+        <v>1.034521134953779</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9380049255850142</v>
+        <v>1.02701757980203</v>
       </c>
       <c r="D19">
-        <v>0.9524781856020886</v>
+        <v>1.036339756493795</v>
       </c>
       <c r="E19">
-        <v>0.9530435204455712</v>
+        <v>1.027106533899832</v>
       </c>
       <c r="F19">
-        <v>0.951400174106681</v>
+        <v>1.042712989996006</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9674837120864426</v>
+        <v>1.033153148943727</v>
       </c>
       <c r="K19">
-        <v>0.9671016562702246</v>
+        <v>1.039648222307022</v>
       </c>
       <c r="L19">
-        <v>0.9676559816838787</v>
+        <v>1.030446896955261</v>
       </c>
       <c r="M19">
-        <v>0.9660446857334477</v>
+        <v>1.045999800914292</v>
       </c>
       <c r="N19">
-        <v>0.9688576499295383</v>
+        <v>1.03462034491955</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9346728805069064</v>
+        <v>1.026448817456672</v>
       </c>
       <c r="D20">
-        <v>0.9493489365828729</v>
+        <v>1.035780531310927</v>
       </c>
       <c r="E20">
-        <v>0.9502877718028414</v>
+        <v>1.026615253236135</v>
       </c>
       <c r="F20">
-        <v>0.9479946492370843</v>
+        <v>1.042100000733194</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9649770065522502</v>
+        <v>1.032709930638099</v>
       </c>
       <c r="K20">
-        <v>0.9643449997572349</v>
+        <v>1.039154838703062</v>
       </c>
       <c r="L20">
-        <v>0.9652649502163143</v>
+        <v>1.03002190973766</v>
       </c>
       <c r="M20">
-        <v>0.9630180408172589</v>
+        <v>1.045452368221459</v>
       </c>
       <c r="N20">
-        <v>0.9663473845859641</v>
+        <v>1.03417649719309</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9234404797864925</v>
+        <v>1.024597212535539</v>
       </c>
       <c r="D21">
-        <v>0.9388166603666719</v>
+        <v>1.033960483302447</v>
       </c>
       <c r="E21">
-        <v>0.941017854153518</v>
+        <v>1.025016108558191</v>
       </c>
       <c r="F21">
-        <v>0.9365316819480968</v>
+        <v>1.040105381459722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9565285947267379</v>
+        <v>1.031266183391792</v>
       </c>
       <c r="K21">
-        <v>0.9550579083536804</v>
+        <v>1.037548228271203</v>
       </c>
       <c r="L21">
-        <v>0.9572099914479697</v>
+        <v>1.028637609787623</v>
       </c>
       <c r="M21">
-        <v>0.9528242355451629</v>
+        <v>1.043670307689586</v>
       </c>
       <c r="N21">
-        <v>0.9578869750466134</v>
+        <v>1.032730699660094</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9160386506186646</v>
+        <v>1.023431048698817</v>
       </c>
       <c r="D22">
-        <v>0.9318901427345492</v>
+        <v>1.032814588148412</v>
       </c>
       <c r="E22">
-        <v>0.9349263545671562</v>
+        <v>1.024009121324592</v>
       </c>
       <c r="F22">
-        <v>0.9289919734542863</v>
+        <v>1.03884988880944</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9509637371650929</v>
+        <v>1.030356243381403</v>
       </c>
       <c r="K22">
-        <v>0.9489434148633655</v>
+        <v>1.036536060063308</v>
       </c>
       <c r="L22">
-        <v>0.9519074013061224</v>
+        <v>1.027765185449951</v>
       </c>
       <c r="M22">
-        <v>0.9461147788838633</v>
+        <v>1.042548027008647</v>
       </c>
       <c r="N22">
-        <v>0.9523142147489325</v>
+        <v>1.031819467430518</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9199970304285671</v>
+        <v>1.024049446870192</v>
       </c>
       <c r="D23">
-        <v>0.9355929506102927</v>
+        <v>1.033422200618802</v>
       </c>
       <c r="E23">
-        <v>0.9381822705971152</v>
+        <v>1.024543093780496</v>
       </c>
       <c r="F23">
-        <v>0.9330227228765596</v>
+        <v>1.039515586047211</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.9539394373628654</v>
+        <v>1.030838831553191</v>
       </c>
       <c r="K23">
-        <v>0.9522127687149476</v>
+        <v>1.037072825528397</v>
       </c>
       <c r="L23">
-        <v>0.9547425470436937</v>
+        <v>1.028227872457807</v>
       </c>
       <c r="M23">
-        <v>0.9497020809486056</v>
+        <v>1.043143146614359</v>
       </c>
       <c r="N23">
-        <v>0.955294140782303</v>
+        <v>1.032302740932863</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9348559234035908</v>
+        <v>1.026479827160455</v>
       </c>
       <c r="D24">
-        <v>0.9495207809838125</v>
+        <v>1.035811019128139</v>
       </c>
       <c r="E24">
-        <v>0.9504390876246447</v>
+        <v>1.026642037723909</v>
       </c>
       <c r="F24">
-        <v>0.9481816673660383</v>
+        <v>1.04213341811449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9651147060883781</v>
+        <v>1.032734098719935</v>
       </c>
       <c r="K24">
-        <v>0.9644964157249362</v>
+        <v>1.039181740171069</v>
       </c>
       <c r="L24">
-        <v>0.9653962829849448</v>
+        <v>1.030045083477312</v>
       </c>
       <c r="M24">
-        <v>0.9631842754872393</v>
+        <v>1.045482214610346</v>
       </c>
       <c r="N24">
-        <v>0.9664852796712277</v>
+        <v>1.034200699596374</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9508245957417942</v>
+        <v>1.029291935457606</v>
       </c>
       <c r="D25">
-        <v>0.9645385070241507</v>
+        <v>1.038576723521798</v>
       </c>
       <c r="E25">
-        <v>0.9636702052461865</v>
+        <v>1.029071367504201</v>
       </c>
       <c r="F25">
-        <v>0.9645251231259154</v>
+        <v>1.045165632324112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.9771283271288788</v>
+        <v>1.034924208806535</v>
       </c>
       <c r="K25">
-        <v>0.9777134477629861</v>
+        <v>1.041620551846369</v>
       </c>
       <c r="L25">
-        <v>0.9768599525889294</v>
+        <v>1.032145194206915</v>
       </c>
       <c r="M25">
-        <v>0.9777002918305927</v>
+        <v>1.048189016084253</v>
       </c>
       <c r="N25">
-        <v>0.9785159614315875</v>
+        <v>1.036393919890506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_150/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.031528711567798</v>
+        <v>0.9627160199728311</v>
       </c>
       <c r="D2">
-        <v>1.040777922395563</v>
+        <v>0.9757553883943368</v>
       </c>
       <c r="E2">
-        <v>1.031004210401216</v>
+        <v>0.9735607856627216</v>
       </c>
       <c r="F2">
-        <v>1.047580054212719</v>
+        <v>0.9767333462384811</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>1.036663938705475</v>
+        <v>0.9860720965965781</v>
       </c>
       <c r="K2">
-        <v>1.043559307405299</v>
+        <v>0.9875631516914938</v>
       </c>
       <c r="L2">
-        <v>1.033813583220028</v>
+        <v>0.9854011775273763</v>
       </c>
       <c r="M2">
-        <v>1.050342295136893</v>
+        <v>0.9885266296178007</v>
       </c>
       <c r="N2">
-        <v>1.038136120405452</v>
+        <v>0.9874724320777956</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.033149473229332</v>
+        <v>0.9709328228240015</v>
       </c>
       <c r="D3">
-        <v>1.042373664865803</v>
+        <v>0.9835230996237692</v>
       </c>
       <c r="E3">
-        <v>1.032405029692096</v>
+        <v>0.980413126509492</v>
       </c>
       <c r="F3">
-        <v>1.049331019988978</v>
+        <v>0.9851892302709253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>1.037923198507259</v>
+        <v>0.9922485226702411</v>
       </c>
       <c r="K3">
-        <v>1.04496347961889</v>
+        <v>0.9943712389078064</v>
       </c>
       <c r="L3">
-        <v>1.03502128702245</v>
+        <v>0.991302915214107</v>
       </c>
       <c r="M3">
-        <v>1.051902701189665</v>
+        <v>0.9960151921539095</v>
       </c>
       <c r="N3">
-        <v>1.039397168500594</v>
+        <v>0.9936576293849293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.034196746797846</v>
+        <v>0.9760766648921214</v>
       </c>
       <c r="D4">
-        <v>1.04340511938952</v>
+        <v>0.9883930003279576</v>
       </c>
       <c r="E4">
-        <v>1.033310310487998</v>
+        <v>0.984710123650623</v>
       </c>
       <c r="F4">
-        <v>1.05046310950982</v>
+        <v>0.9904916278752757</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>1.038736259236987</v>
+        <v>0.996112781459717</v>
       </c>
       <c r="K4">
-        <v>1.045870500420915</v>
+        <v>0.9986335600929623</v>
       </c>
       <c r="L4">
-        <v>1.035801096219005</v>
+        <v>0.9949966554315441</v>
       </c>
       <c r="M4">
-        <v>1.052911040437299</v>
+        <v>1.000706181598689</v>
       </c>
       <c r="N4">
-        <v>1.040211383869818</v>
+        <v>0.9975273758651233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.034636679974208</v>
+        <v>0.9782003950615659</v>
       </c>
       <c r="D5">
-        <v>1.043838489932027</v>
+        <v>0.9904052672022481</v>
       </c>
       <c r="E5">
-        <v>1.033690625064756</v>
+        <v>0.9864858385451873</v>
       </c>
       <c r="F5">
-        <v>1.050938834856217</v>
+        <v>0.9926828950784766</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1.039077655643758</v>
+        <v>0.9977075823121901</v>
       </c>
       <c r="K5">
-        <v>1.046251444461984</v>
+        <v>1.00039334205179</v>
       </c>
       <c r="L5">
-        <v>1.036128539092528</v>
+        <v>0.9965213786265015</v>
       </c>
       <c r="M5">
-        <v>1.053334633519881</v>
+        <v>1.002643600927009</v>
       </c>
       <c r="N5">
-        <v>1.040553265098645</v>
+        <v>0.9991244415177324</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.034710527025687</v>
+        <v>0.9785547797689826</v>
       </c>
       <c r="D6">
-        <v>1.04391124020476</v>
+        <v>0.9907411460885153</v>
       </c>
       <c r="E6">
-        <v>1.033754466224417</v>
+        <v>0.986782241795678</v>
       </c>
       <c r="F6">
-        <v>1.051018699525774</v>
+        <v>0.9930486700522456</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>1.039134953541414</v>
+        <v>0.9979736657740127</v>
       </c>
       <c r="K6">
-        <v>1.0463153853514</v>
+        <v>1.000686993075819</v>
       </c>
       <c r="L6">
-        <v>1.03618349560334</v>
+        <v>0.9967757867681862</v>
       </c>
       <c r="M6">
-        <v>1.053405738610759</v>
+        <v>1.002966932869574</v>
       </c>
       <c r="N6">
-        <v>1.040610644365888</v>
+        <v>0.9993909028485914</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.034202626530107</v>
+        <v>0.9761051911661526</v>
       </c>
       <c r="D7">
-        <v>1.04341091108818</v>
+        <v>0.9884200230324016</v>
       </c>
       <c r="E7">
-        <v>1.033315393301748</v>
+        <v>0.9847339690870885</v>
       </c>
       <c r="F7">
-        <v>1.050469466965876</v>
+        <v>0.9905210531749772</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>1.038740822609221</v>
+        <v>0.9961342056722305</v>
       </c>
       <c r="K7">
-        <v>1.045875592045446</v>
+        <v>0.9986571978452216</v>
       </c>
       <c r="L7">
-        <v>1.03580547304441</v>
+        <v>0.9950171370938841</v>
       </c>
       <c r="M7">
-        <v>1.052916701723882</v>
+        <v>1.000732202801205</v>
       </c>
       <c r="N7">
-        <v>1.040215953722564</v>
+        <v>0.9975488305024758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.032076765904279</v>
+        <v>0.9655304364228294</v>
       </c>
       <c r="D8">
-        <v>1.041317444217921</v>
+        <v>0.9784144030833832</v>
       </c>
       <c r="E8">
-        <v>1.03147786541934</v>
+        <v>0.9759062080065501</v>
       </c>
       <c r="F8">
-        <v>1.048171994757701</v>
+        <v>0.9796277357553551</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>1.037089881716239</v>
+        <v>0.9881880716675111</v>
       </c>
       <c r="K8">
-        <v>1.044034184986658</v>
+        <v>0.989894927438595</v>
       </c>
       <c r="L8">
-        <v>1.03422207978242</v>
+        <v>0.9874227479175274</v>
       </c>
       <c r="M8">
-        <v>1.05086992673562</v>
+        <v>0.9910909214371525</v>
       </c>
       <c r="N8">
-        <v>1.038562668304149</v>
+        <v>0.989591412076035</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.028319006331302</v>
+        <v>0.9454357854714972</v>
       </c>
       <c r="D9">
-        <v>1.037619640883565</v>
+        <v>0.9594648480208545</v>
       </c>
       <c r="E9">
-        <v>1.028230786132571</v>
+        <v>0.9591985942730171</v>
       </c>
       <c r="F9">
-        <v>1.044116151614282</v>
+        <v>0.9590035463047392</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>1.034166833571059</v>
+        <v>0.9730742490544965</v>
       </c>
       <c r="K9">
-        <v>1.04077694422093</v>
+        <v>0.9732516984640259</v>
       </c>
       <c r="L9">
-        <v>1.031418918133993</v>
+        <v>0.9729902537672708</v>
       </c>
       <c r="M9">
-        <v>1.0472524788012</v>
+        <v>0.9727987309411725</v>
       </c>
       <c r="N9">
-        <v>1.035635469095323</v>
+        <v>0.9744561261013303</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.025805277719833</v>
+        <v>0.9308374969978334</v>
       </c>
       <c r="D10">
-        <v>1.035147871614436</v>
+        <v>0.9457497535656166</v>
       </c>
       <c r="E10">
-        <v>1.026059419911653</v>
+        <v>0.9471190341328204</v>
       </c>
       <c r="F10">
-        <v>1.041406588782684</v>
+        <v>0.9440775938639211</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1.032208291231636</v>
+        <v>0.96209186833338</v>
       </c>
       <c r="K10">
-        <v>1.038596517508378</v>
+        <v>0.9611728290757314</v>
       </c>
       <c r="L10">
-        <v>1.029540915074887</v>
+        <v>0.9625135481731183</v>
       </c>
       <c r="M10">
-        <v>1.044832980821994</v>
+        <v>0.9595356971506803</v>
       </c>
       <c r="N10">
-        <v>1.03367414540113</v>
+        <v>0.9634581491398932</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.024714625673881</v>
+        <v>0.9241711328819369</v>
       </c>
       <c r="D11">
-        <v>1.034075872470286</v>
+        <v>0.9395009964890002</v>
       </c>
       <c r="E11">
-        <v>1.025117502779489</v>
+        <v>0.9416199076254227</v>
       </c>
       <c r="F11">
-        <v>1.04023182003385</v>
+        <v>0.9372765436596294</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>1.031357771619474</v>
+        <v>0.9570780378601328</v>
       </c>
       <c r="K11">
-        <v>1.037650123774023</v>
+        <v>0.9556617327084957</v>
       </c>
       <c r="L11">
-        <v>1.028725424021697</v>
+        <v>0.9577336751429582</v>
       </c>
       <c r="M11">
-        <v>1.043783306098854</v>
+        <v>0.9534868924882047</v>
       </c>
       <c r="N11">
-        <v>1.032822417953563</v>
+        <v>0.9584371984522797</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.024309166753347</v>
+        <v>0.9216369238310554</v>
       </c>
       <c r="D12">
-        <v>1.033677415882243</v>
+        <v>0.9371278965501663</v>
       </c>
       <c r="E12">
-        <v>1.02476736724914</v>
+        <v>0.9395323058004669</v>
       </c>
       <c r="F12">
-        <v>1.039795218422662</v>
+        <v>0.9346935161562836</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>1.031041471582675</v>
+        <v>0.9551724268685351</v>
       </c>
       <c r="K12">
-        <v>1.037298241350387</v>
+        <v>0.9535676034263373</v>
       </c>
       <c r="L12">
-        <v>1.028422159079493</v>
+        <v>0.9559175080223221</v>
       </c>
       <c r="M12">
-        <v>1.043393095180532</v>
+        <v>0.9511887887158509</v>
       </c>
       <c r="N12">
-        <v>1.032505668734432</v>
+        <v>0.9565288812744971</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.024396154763193</v>
+        <v>0.9221832563120815</v>
       </c>
       <c r="D13">
-        <v>1.033762898510581</v>
+        <v>0.9376393866941195</v>
       </c>
       <c r="E13">
-        <v>1.02484248468764</v>
+        <v>0.9399822216470797</v>
       </c>
       <c r="F13">
-        <v>1.039888882034356</v>
+        <v>0.9352502632205971</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>1.031109336333286</v>
+        <v>0.9555832233196645</v>
       </c>
       <c r="K13">
-        <v>1.037373737323711</v>
+        <v>0.9540190179486534</v>
       </c>
       <c r="L13">
-        <v>1.028487226663756</v>
+        <v>0.9563089982536898</v>
       </c>
       <c r="M13">
-        <v>1.043476811196233</v>
+        <v>0.9516841574815884</v>
       </c>
       <c r="N13">
-        <v>1.032573629860773</v>
+        <v>0.956940261103706</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.024681117369311</v>
+        <v>0.9239628773878764</v>
       </c>
       <c r="D14">
-        <v>1.034042941468731</v>
+        <v>0.9393059315548915</v>
       </c>
       <c r="E14">
-        <v>1.025088565942883</v>
+        <v>0.9414482928970441</v>
       </c>
       <c r="F14">
-        <v>1.040195735385686</v>
+        <v>0.9370642272851288</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1.031331633952679</v>
+        <v>0.956921430023193</v>
       </c>
       <c r="K14">
-        <v>1.037621044259477</v>
+        <v>0.9554896224188536</v>
       </c>
       <c r="L14">
-        <v>1.028700363347615</v>
+        <v>0.9575844070650437</v>
       </c>
       <c r="M14">
-        <v>1.043751057638611</v>
+        <v>0.9532980113863522</v>
       </c>
       <c r="N14">
-        <v>1.032796243168284</v>
+        <v>0.9582803682142483</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.024856646501032</v>
+        <v>0.925051469974343</v>
       </c>
       <c r="D15">
-        <v>1.034215449256044</v>
+        <v>0.9403256713865064</v>
       </c>
       <c r="E15">
-        <v>1.025240149235509</v>
+        <v>0.9423454759645284</v>
       </c>
       <c r="F15">
-        <v>1.040384765635167</v>
+        <v>0.9381741443991111</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>1.031468548309035</v>
+        <v>0.9577400671271722</v>
       </c>
       <c r="K15">
-        <v>1.037773371563875</v>
+        <v>0.9563893148526764</v>
       </c>
       <c r="L15">
-        <v>1.028831636541384</v>
+        <v>0.9583646986021248</v>
       </c>
       <c r="M15">
-        <v>1.043919987820463</v>
+        <v>0.9542853856515188</v>
       </c>
       <c r="N15">
-        <v>1.03293335195873</v>
+        <v>0.959100167876814</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.025877613434062</v>
+        <v>0.931272145452786</v>
       </c>
       <c r="D16">
-        <v>1.035218979689826</v>
+        <v>0.9461574853881509</v>
       </c>
       <c r="E16">
-        <v>1.02612189515696</v>
+        <v>0.9474779558048815</v>
       </c>
       <c r="F16">
-        <v>1.041484521364972</v>
+        <v>0.9445213429583497</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>1.03226468478837</v>
+        <v>0.9624188137880809</v>
       </c>
       <c r="K16">
-        <v>1.038659278111699</v>
+        <v>0.9615322673532297</v>
       </c>
       <c r="L16">
-        <v>1.029594987217837</v>
+        <v>0.962825306120957</v>
       </c>
       <c r="M16">
-        <v>1.044902600769329</v>
+        <v>0.9599302550541011</v>
       </c>
       <c r="N16">
-        <v>1.033730619043184</v>
+        <v>0.9637855588946409</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.02651744327494</v>
+        <v>0.9350777472601931</v>
       </c>
       <c r="D17">
-        <v>1.035848002466259</v>
+        <v>0.9497290427896975</v>
       </c>
       <c r="E17">
-        <v>1.026674528593647</v>
+        <v>0.9506224731985511</v>
       </c>
       <c r="F17">
-        <v>1.04217395540717</v>
+        <v>0.9484083181936911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1.03276341515529</v>
+        <v>0.9652815804915622</v>
       </c>
       <c r="K17">
-        <v>1.039214372583785</v>
+        <v>0.9646799148525697</v>
       </c>
       <c r="L17">
-        <v>1.030073193787925</v>
+        <v>0.9655554436268659</v>
       </c>
       <c r="M17">
-        <v>1.045518419634303</v>
+        <v>0.9633857348996604</v>
       </c>
       <c r="N17">
-        <v>1.034230057664429</v>
+        <v>0.9666523910552048</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.026890434684554</v>
+        <v>0.9372646484036046</v>
       </c>
       <c r="D18">
-        <v>1.036214736947007</v>
+        <v>0.9517827701048336</v>
       </c>
       <c r="E18">
-        <v>1.026996706862235</v>
+        <v>0.952431050274764</v>
       </c>
       <c r="F18">
-        <v>1.042575945815628</v>
+        <v>0.9506433671910938</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1.033054079667692</v>
+        <v>0.9669267877276843</v>
       </c>
       <c r="K18">
-        <v>1.039537933006811</v>
+        <v>0.966489152156392</v>
       </c>
       <c r="L18">
-        <v>1.030351901977319</v>
+        <v>0.9671247155606761</v>
       </c>
       <c r="M18">
-        <v>1.045877422653877</v>
+        <v>0.9653721551390305</v>
       </c>
       <c r="N18">
-        <v>1.034521134953779</v>
+        <v>0.9682999346743103</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.02701757980203</v>
+        <v>0.9380049255850141</v>
       </c>
       <c r="D19">
-        <v>1.036339756493795</v>
+        <v>0.9524781856020883</v>
       </c>
       <c r="E19">
-        <v>1.027106533899832</v>
+        <v>0.9530435204455708</v>
       </c>
       <c r="F19">
-        <v>1.042712989996006</v>
+        <v>0.9514001741066808</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>1.033153148943727</v>
+        <v>0.9674837120864422</v>
       </c>
       <c r="K19">
-        <v>1.039648222307022</v>
+        <v>0.9671016562702243</v>
       </c>
       <c r="L19">
-        <v>1.030446896955261</v>
+        <v>0.9676559816838787</v>
       </c>
       <c r="M19">
-        <v>1.045999800914292</v>
+        <v>0.9660446857334476</v>
       </c>
       <c r="N19">
-        <v>1.03462034491955</v>
+        <v>0.968857649929538</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.026448817456672</v>
+        <v>0.9346728805069077</v>
       </c>
       <c r="D20">
-        <v>1.035780531310927</v>
+        <v>0.9493489365828746</v>
       </c>
       <c r="E20">
-        <v>1.026615253236135</v>
+        <v>0.9502877718028425</v>
       </c>
       <c r="F20">
-        <v>1.042100000733194</v>
+        <v>0.9479946492370862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>1.032709930638099</v>
+        <v>0.9649770065522515</v>
       </c>
       <c r="K20">
-        <v>1.039154838703062</v>
+        <v>0.9643449997572362</v>
       </c>
       <c r="L20">
-        <v>1.03002190973766</v>
+        <v>0.9652649502163155</v>
       </c>
       <c r="M20">
-        <v>1.045452368221459</v>
+        <v>0.9630180408172607</v>
       </c>
       <c r="N20">
-        <v>1.03417649719309</v>
+        <v>0.9663473845859655</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.024597212535539</v>
+        <v>0.9234404797864934</v>
       </c>
       <c r="D21">
-        <v>1.033960483302447</v>
+        <v>0.9388166603666728</v>
       </c>
       <c r="E21">
-        <v>1.025016108558191</v>
+        <v>0.9410178541535188</v>
       </c>
       <c r="F21">
-        <v>1.040105381459722</v>
+        <v>0.936531681948098</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>1.031266183391792</v>
+        <v>0.9565285947267388</v>
       </c>
       <c r="K21">
-        <v>1.037548228271203</v>
+        <v>0.9550579083536813</v>
       </c>
       <c r="L21">
-        <v>1.028637609787623</v>
+        <v>0.9572099914479707</v>
       </c>
       <c r="M21">
-        <v>1.043670307689586</v>
+        <v>0.9528242355451642</v>
       </c>
       <c r="N21">
-        <v>1.032730699660094</v>
+        <v>0.9578869750466139</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.023431048698817</v>
+        <v>0.9160386506186654</v>
       </c>
       <c r="D22">
-        <v>1.032814588148412</v>
+        <v>0.9318901427345496</v>
       </c>
       <c r="E22">
-        <v>1.024009121324592</v>
+        <v>0.9349263545671566</v>
       </c>
       <c r="F22">
-        <v>1.03884988880944</v>
+        <v>0.928991973454287</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1.030356243381403</v>
+        <v>0.9509637371650933</v>
       </c>
       <c r="K22">
-        <v>1.036536060063308</v>
+        <v>0.9489434148633662</v>
       </c>
       <c r="L22">
-        <v>1.027765185449951</v>
+        <v>0.9519074013061228</v>
       </c>
       <c r="M22">
-        <v>1.042548027008647</v>
+        <v>0.9461147788838641</v>
       </c>
       <c r="N22">
-        <v>1.031819467430518</v>
+        <v>0.952314214748933</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.024049446870192</v>
+        <v>0.9199970304285671</v>
       </c>
       <c r="D23">
-        <v>1.033422200618802</v>
+        <v>0.9355929506102925</v>
       </c>
       <c r="E23">
-        <v>1.024543093780496</v>
+        <v>0.9381822705971152</v>
       </c>
       <c r="F23">
-        <v>1.039515586047211</v>
+        <v>0.9330227228765593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>1.030838831553191</v>
+        <v>0.953939437362865</v>
       </c>
       <c r="K23">
-        <v>1.037072825528397</v>
+        <v>0.9522127687149472</v>
       </c>
       <c r="L23">
-        <v>1.028227872457807</v>
+        <v>0.9547425470436939</v>
       </c>
       <c r="M23">
-        <v>1.043143146614359</v>
+        <v>0.9497020809486054</v>
       </c>
       <c r="N23">
-        <v>1.032302740932863</v>
+        <v>0.9552941407823031</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.026479827160455</v>
+        <v>0.9348559234035922</v>
       </c>
       <c r="D24">
-        <v>1.035811019128139</v>
+        <v>0.9495207809838137</v>
       </c>
       <c r="E24">
-        <v>1.026642037723909</v>
+        <v>0.9504390876246457</v>
       </c>
       <c r="F24">
-        <v>1.04213341811449</v>
+        <v>0.9481816673660394</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>1.032734098719935</v>
+        <v>0.9651147060883792</v>
       </c>
       <c r="K24">
-        <v>1.039181740171069</v>
+        <v>0.9644964157249373</v>
       </c>
       <c r="L24">
-        <v>1.030045083477312</v>
+        <v>0.9653962829849458</v>
       </c>
       <c r="M24">
-        <v>1.045482214610346</v>
+        <v>0.9631842754872404</v>
       </c>
       <c r="N24">
-        <v>1.034200699596374</v>
+        <v>0.9664852796712284</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.029291935457606</v>
+        <v>0.9508245957417952</v>
       </c>
       <c r="D25">
-        <v>1.038576723521798</v>
+        <v>0.9645385070241518</v>
       </c>
       <c r="E25">
-        <v>1.029071367504201</v>
+        <v>0.9636702052461873</v>
       </c>
       <c r="F25">
-        <v>1.045165632324112</v>
+        <v>0.9645251231259167</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>1.034924208806535</v>
+        <v>0.9771283271288795</v>
       </c>
       <c r="K25">
-        <v>1.041620551846369</v>
+        <v>0.9777134477629872</v>
       </c>
       <c r="L25">
-        <v>1.032145194206915</v>
+        <v>0.9768599525889302</v>
       </c>
       <c r="M25">
-        <v>1.048189016084253</v>
+        <v>0.977700291830594</v>
       </c>
       <c r="N25">
-        <v>1.036393919890506</v>
+        <v>0.978515961431588</v>
       </c>
     </row>
   </sheetData>
